--- a/Excel de Algoritmos.xlsx
+++ b/Excel de Algoritmos.xlsx
@@ -2,23 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\OneDrive\Documentos\Tarea_Algoritmos_JosueRomero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B65586-D3F3-4658-94F5-E4CD4C15CFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A17F73-F758-4124-ACA1-FBEC0411E772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD0E57B7-37D1-495C-A423-98EB2A87FFD3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="33" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>bubbleSort</t>
   </si>
@@ -75,13 +75,61 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of 8</t>
+    <t>1000a</t>
   </si>
   <si>
-    <t>Sum of 500</t>
+    <t>1000b</t>
   </si>
   <si>
-    <t>Sum of 1000</t>
+    <t>1000c</t>
+  </si>
+  <si>
+    <t>Sum of 1000a</t>
+  </si>
+  <si>
+    <t>Sum of 1000b</t>
+  </si>
+  <si>
+    <t>Sum of 1000c</t>
+  </si>
+  <si>
+    <t>50000a</t>
+  </si>
+  <si>
+    <t>50000b</t>
+  </si>
+  <si>
+    <t>50000c</t>
+  </si>
+  <si>
+    <t>Time in Sec</t>
+  </si>
+  <si>
+    <t>Sum of 50000a</t>
+  </si>
+  <si>
+    <t>Sum of 50000b</t>
+  </si>
+  <si>
+    <t>Sum of 50000c</t>
+  </si>
+  <si>
+    <t>10000c</t>
+  </si>
+  <si>
+    <t>10000b</t>
+  </si>
+  <si>
+    <t>10000a</t>
+  </si>
+  <si>
+    <t>Sum of 10000a</t>
+  </si>
+  <si>
+    <t>Sum of 10000b</t>
+  </si>
+  <si>
+    <t>Sum of 10000c</t>
   </si>
 </sst>
 </file>
@@ -148,10 +196,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -160,22 +217,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,6 +439,846 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -397,7 +1295,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of 8</c:v>
+                  <c:v>Sum of 1000a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -445,29 +1343,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.41</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44400000000000001</c:v>
+                  <c:v>2.9970000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56200000000000006</c:v>
+                  <c:v>2.2002000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57699999999999996</c:v>
+                  <c:v>2.0170000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92900000000000005</c:v>
+                  <c:v>1.005E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42899999999999999</c:v>
+                  <c:v>2.4006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E0C-49C5-999C-72C193ED613F}"/>
+              <c16:uniqueId val="{00000000-9F29-4011-94CC-A33D72E2263D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -480,7 +1378,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of 500</c:v>
+                  <c:v>Sum of 1000b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -528,29 +1426,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.60399999999999998</c:v>
+                  <c:v>7.5996999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63</c:v>
+                  <c:v>3.0010000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47099999999999997</c:v>
+                  <c:v>1.8512000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58299999999999996</c:v>
+                  <c:v>1.99E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43099999999999999</c:v>
+                  <c:v>1.9919999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41599999999999998</c:v>
+                  <c:v>2.1002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E0C-49C5-999C-72C193ED613F}"/>
+              <c16:uniqueId val="{00000002-9F29-4011-94CC-A33D72E2263D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -563,7 +1461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of 1000</c:v>
+                  <c:v>Sum of 1000c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -611,29 +1509,533 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.7569999999999999</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>2.0089999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.159</c:v>
+                  <c:v>3.2003999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59</c:v>
+                  <c:v>1.9970000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55100000000000005</c:v>
+                  <c:v>1.6011999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.879</c:v>
+                  <c:v>3.1001000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0E0C-49C5-999C-72C193ED613F}"/>
+              <c16:uniqueId val="{00000003-9F29-4011-94CC-A33D72E2263D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 10000a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2110079999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8001000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.935991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0008000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.864989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-9F29-4011-94CC-A33D72E2263D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 10000b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2219980000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8009000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.98607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7447000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9389879999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-9F29-4011-94CC-A33D72E2263D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 10000c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5701010000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1523000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9636720000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7009E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8549949999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-9F29-4011-94CC-A33D72E2263D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50000a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$4:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>103.97857399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22542499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.108870000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.129997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.535550999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-9F29-4011-94CC-A33D72E2263D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50000b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>117.330302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22143399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.212870000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15101400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4002000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.478306000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-9F29-4011-94CC-A33D72E2263D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50000c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>119.21794800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20408100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.904153000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13200200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13500899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.697992999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-9F29-4011-94CC-A33D72E2263D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,11 +2049,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1311144880"/>
-        <c:axId val="1311143440"/>
+        <c:axId val="10464624"/>
+        <c:axId val="10467504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1311144880"/>
+        <c:axId val="10464624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +2096,7 @@
             <a:endParaRPr lang="es-HN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1311143440"/>
+        <c:crossAx val="10467504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -702,7 +2104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1311143440"/>
+        <c:axId val="10467504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +2155,7 @@
             <a:endParaRPr lang="es-HN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1311144880"/>
+        <c:crossAx val="10464624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -856,7 +2258,3586 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel de Algoritmos.xlsx]Sheet3!PivotTable2</c:name>
+    <c:fmtId val="10"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 1000a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9970000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2002000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0170000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.005E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54C0-4092-8DB0-75196436BB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 1000b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.5996999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0010000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8512000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.99E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9919999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54C0-4092-8DB0-75196436BB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 1000c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0089999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2003999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9970000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6011999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1001000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54C0-4092-8DB0-75196436BB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 10000a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2110079999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8001000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.935991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0008000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.864989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-54C0-4092-8DB0-75196436BB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 10000b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2219980000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8009000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.98607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7447000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9389879999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-54C0-4092-8DB0-75196436BB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 10000c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5701010000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1523000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9636720000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7009E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8549949999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-54C0-4092-8DB0-75196436BB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50000a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$4:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>103.97857399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22542499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.108870000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.129997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.535550999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-54C0-4092-8DB0-75196436BB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50000b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>117.330302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22143399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.212870000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15101400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4002000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.478306000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-54C0-4092-8DB0-75196436BB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50000c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>119.21794800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20408100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.904153000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13200200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13500899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.697992999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-54C0-4092-8DB0-75196436BB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="273876640"/>
+        <c:axId val="273877120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="273876640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273877120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273877120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273876640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-HN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-HN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel de Algoritmos.xlsx]Sheet3!PivotTable2</c:name>
+    <c:fmtId val="13"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-HN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 1000a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9970000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2002000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0170000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.005E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A14F-4B66-8D6B-4F4A7006BF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 1000b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.5996999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0010000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8512000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.99E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9919999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A14F-4B66-8D6B-4F4A7006BF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 1000c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0089999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2003999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9970000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6011999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1001000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A14F-4B66-8D6B-4F4A7006BF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 10000a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2110079999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8001000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.935991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0008000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.864989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A14F-4B66-8D6B-4F4A7006BF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 10000b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2219980000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8009000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.98607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7447000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9389879999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A14F-4B66-8D6B-4F4A7006BF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 10000c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5701010000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1523000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9636720000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7009E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8549949999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A14F-4B66-8D6B-4F4A7006BF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50000a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$4:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>103.97857399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22542499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.108870000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.129997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.535550999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A14F-4B66-8D6B-4F4A7006BF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50000b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>117.330302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22143399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.212870000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15101400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4002000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.478306000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A14F-4B66-8D6B-4F4A7006BF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 50000c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>insertionSort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mergeSort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>selectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>119.21794800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20408100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.904153000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13200200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13500899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.697992999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A14F-4B66-8D6B-4F4A7006BF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="1977183200"/>
+        <c:axId val="1977184160"/>
+        <c:axId val="225562128"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="1977183200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1977184160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1977184160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1977183200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="225562128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-HN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1977184160"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-HN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-HN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1399,27 +6380,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>262539</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>93448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>611522</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137672</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17080482-7BC1-35D6-0813-EEA1559DC829}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1329980A-1DD7-B3D9-7ECB-B987371B8BE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,15 +6921,87 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>153761</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>70077</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC17A0A5-3273-1796-3F6C-BB6F52696A73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C685F41-EC0F-9333-E581-9AFA1DF100D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Josue Romero" refreshedDate="45620.682014467595" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{61198D02-3CD7-4E23-B4E9-407037B18C19}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Josue Romero" refreshedDate="45622.503184606481" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{7C8A6545-010E-4028-A5C6-AE80F958F556}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C4:F10" sheet="Sheet1"/>
+    <worksheetSource ref="C4:L10" sheet="Sheet1"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="10">
     <cacheField name="Tipos de Sorts" numFmtId="0">
       <sharedItems count="6">
         <s v="bubbleSort"/>
@@ -1456,14 +7012,32 @@
         <s v="selectionSort"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="8" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.41" maxValue="0.92900000000000005"/>
+    <cacheField name="1000a" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.005E-3" maxValue="7.2999999999999995E-2"/>
     </cacheField>
-    <cacheField name="500" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.41599999999999998" maxValue="0.63"/>
+    <cacheField name="1000b" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.99E-3" maxValue="7.5996999999999995E-2"/>
     </cacheField>
-    <cacheField name="1000" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.13" maxValue="1.7569999999999999"/>
+    <cacheField name="1000c" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.9970000000000001E-3" maxValue="7.0999999999999994E-2"/>
+    </cacheField>
+    <cacheField name="10000a" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.6E-2" maxValue="4.2110079999999996"/>
+    </cacheField>
+    <cacheField name="10000b" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.7447000000000001E-2" maxValue="4.2219980000000001"/>
+    </cacheField>
+    <cacheField name="10000c" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.7009E-2" maxValue="4.5701010000000002"/>
+    </cacheField>
+    <cacheField name="50000a" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.101009" maxValue="103.97857399999999"/>
+    </cacheField>
+    <cacheField name="50000b" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.4002000000000002E-2" maxValue="117.330302"/>
+    </cacheField>
+    <cacheField name="50000c" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.13200200000000001" maxValue="119.21794800000001"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1478,47 +7052,83 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
     <x v="0"/>
-    <n v="0.41"/>
-    <n v="0.60399999999999998"/>
-    <n v="1.7569999999999999"/>
+    <n v="7.2999999999999995E-2"/>
+    <n v="7.5996999999999995E-2"/>
+    <n v="7.0999999999999994E-2"/>
+    <n v="4.2110079999999996"/>
+    <n v="4.2219980000000001"/>
+    <n v="4.5701010000000002"/>
+    <n v="103.97857399999999"/>
+    <n v="117.330302"/>
+    <n v="119.21794800000001"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.44400000000000001"/>
-    <n v="0.63"/>
-    <n v="0.13"/>
+    <n v="2.9970000000000001E-3"/>
+    <n v="3.0010000000000002E-3"/>
+    <n v="2.0089999999999999E-3"/>
+    <n v="6.8001000000000006E-2"/>
+    <n v="3.8009000000000001E-2"/>
+    <n v="7.1523000000000003E-2"/>
+    <n v="0.22542499999999999"/>
+    <n v="0.22143399999999999"/>
+    <n v="0.20408100000000001"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.56200000000000006"/>
-    <n v="0.47099999999999997"/>
-    <n v="1.159"/>
+    <n v="2.2002000000000001E-2"/>
+    <n v="1.8512000000000001E-2"/>
+    <n v="3.2003999999999998E-2"/>
+    <n v="1.935991"/>
+    <n v="1.98607"/>
+    <n v="1.9636720000000001"/>
+    <n v="56.108870000000003"/>
+    <n v="56.212870000000002"/>
+    <n v="54.904153000000001"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.57699999999999996"/>
-    <n v="0.58299999999999996"/>
-    <n v="0.59"/>
+    <n v="2.0170000000000001E-3"/>
+    <n v="1.99E-3"/>
+    <n v="1.9970000000000001E-3"/>
+    <n v="4.0008000000000002E-2"/>
+    <n v="5.0000999999999997E-2"/>
+    <n v="3.1999E-2"/>
+    <n v="0.129997"/>
+    <n v="0.15101400000000001"/>
+    <n v="0.13200200000000001"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.92900000000000005"/>
-    <n v="0.43099999999999999"/>
-    <n v="0.55100000000000005"/>
+    <n v="1.005E-3"/>
+    <n v="1.9919999999999998E-3"/>
+    <n v="1.6011999999999998E-2"/>
+    <n v="1.6E-2"/>
+    <n v="1.7447000000000001E-2"/>
+    <n v="1.7009E-2"/>
+    <n v="0.101009"/>
+    <n v="9.4002000000000002E-2"/>
+    <n v="0.13500899999999999"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="0.42899999999999999"/>
-    <n v="0.41599999999999998"/>
-    <n v="0.879"/>
+    <n v="2.4006E-2"/>
+    <n v="2.1002E-2"/>
+    <n v="3.1001000000000001E-2"/>
+    <n v="1.864989"/>
+    <n v="1.9389879999999999"/>
+    <n v="1.8549949999999999"/>
+    <n v="46.535550999999998"/>
+    <n v="48.478306000000003"/>
+    <n v="45.697992999999997"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAE326D2-F29B-420E-888D-453AACA4E019}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67E3C88F-9937-47A2-BD2A-EBB668B605A3}" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="A3:J10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item x="0"/>
@@ -1530,6 +7140,12 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -1563,7 +7179,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="9">
     <i>
       <x/>
     </i>
@@ -1573,14 +7189,38 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
   </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of 8" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 500" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of 1000" fld="3" baseField="0" baseItem="0"/>
+  <dataFields count="9">
+    <dataField name="Sum of 1000a" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 1000b" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 1000c" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 10000a" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 10000b" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 10000c" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 50000a" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 50000b" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 50000c" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="27">
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1589,7 +7229,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1598,11 +7238,227 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -1936,131 +7792,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906A2EF2-14A9-4C06-9069-9CC2B0AFB847}">
-  <dimension ref="A3:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAEA9D5-5CF5-4F8D-8FC4-5C9985485B7D}">
+  <dimension ref="A3:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
-        <v>0.41</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1.7569999999999999</v>
+      <c r="B4" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>7.5996999999999995E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.2110079999999996</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4.2219980000000001</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4.5701010000000002</v>
+      </c>
+      <c r="H4" s="9">
+        <v>103.97857399999999</v>
+      </c>
+      <c r="I4" s="9">
+        <v>117.330302</v>
+      </c>
+      <c r="J4" s="9">
+        <v>119.21794800000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.13</v>
+      <c r="B5" s="9">
+        <v>2.9970000000000001E-3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3.0010000000000002E-3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.0089999999999999E-3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6.8001000000000006E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3.8009000000000001E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7.1523000000000003E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.22542499999999999</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.22143399999999999</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.20408100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1.159</v>
+      <c r="B6" s="9">
+        <v>2.2002000000000001E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.8512000000000001E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.2003999999999998E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.935991</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.98607</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.9636720000000001</v>
+      </c>
+      <c r="H6" s="9">
+        <v>56.108870000000003</v>
+      </c>
+      <c r="I6" s="9">
+        <v>56.212870000000002</v>
+      </c>
+      <c r="J6" s="9">
+        <v>54.904153000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.59</v>
+      <c r="B7" s="9">
+        <v>2.0170000000000001E-3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.99E-3</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.9970000000000001E-3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.0008000000000002E-2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5.0000999999999997E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3.1999E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.129997</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.15101400000000001</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.13200200000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.55100000000000005</v>
+      <c r="B8" s="9">
+        <v>1.005E-3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.9919999999999998E-3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.6011999999999998E-2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1.7447000000000001E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1.7009E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.101009</v>
+      </c>
+      <c r="I8" s="9">
+        <v>9.4002000000000002E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.13500899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.879</v>
+      <c r="B9" s="9">
+        <v>2.4006E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2.1002E-2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3.1001000000000001E-2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.864989</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.9389879999999999</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.8549949999999999</v>
+      </c>
+      <c r="H9" s="9">
+        <v>46.535550999999998</v>
+      </c>
+      <c r="I9" s="9">
+        <v>48.478306000000003</v>
+      </c>
+      <c r="J9" s="9">
+        <v>45.697992999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
-        <v>3.3509999999999995</v>
-      </c>
-      <c r="C10" s="10">
-        <v>3.1350000000000002</v>
-      </c>
-      <c r="D10" s="10">
-        <v>5.0660000000000007</v>
+      <c r="B10" s="9">
+        <v>0.125027</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.12249399999999999</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.15402299999999999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>8.1359969999999997</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8.2525129999999987</v>
+      </c>
+      <c r="G10" s="9">
+        <v>8.5092990000000004</v>
+      </c>
+      <c r="H10" s="9">
+        <v>207.07942600000001</v>
+      </c>
+      <c r="I10" s="9">
+        <v>222.48792800000001</v>
+      </c>
+      <c r="J10" s="9">
+        <v>220.29118600000001</v>
       </c>
     </row>
   </sheetData>
@@ -2071,10 +8076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE74EC3-D761-4AE0-BD16-E2C1734FE725}">
-  <dimension ref="C3:J10"/>
+  <dimension ref="C3:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,123 +8089,256 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5">
-        <v>500</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1000</v>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.7569999999999999</v>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>7.5996999999999995E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.2110079999999996</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.2219980000000001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4.5701010000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>103.97857399999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>117.330302</v>
+      </c>
+      <c r="L5" s="2">
+        <v>119.21794800000001</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.13</v>
+        <v>2.9970000000000001E-3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3.0010000000000002E-3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2.0089999999999999E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.8001000000000006E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.8009000000000001E-2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>7.1523000000000003E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.22542499999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.22143399999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.20408100000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.159</v>
+        <v>2.2002000000000001E-2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1.8512000000000001E-2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3.2003999999999998E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.935991</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.98607</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.9636720000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>56.108870000000003</v>
+      </c>
+      <c r="K7" s="2">
+        <v>56.212870000000002</v>
+      </c>
+      <c r="L7" s="2">
+        <v>54.904153000000001</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.59</v>
+        <v>2.0170000000000001E-3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1.99E-3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1.9970000000000001E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4.0008000000000002E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.0000999999999997E-2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3.1999E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.129997</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.15101400000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.13200200000000001</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.55100000000000005</v>
+        <v>1.005E-3</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1.9919999999999998E-3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.6011999999999998E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.7447000000000001E-2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1.7009E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.101009</v>
+      </c>
+      <c r="K9" s="2">
+        <v>9.4002000000000002E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.13500899999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.879</v>
+        <v>2.4006E-2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2.1002E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3.1001000000000001E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.864989</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.9389879999999999</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1.8549949999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>46.535550999999998</v>
+      </c>
+      <c r="K10" s="2">
+        <v>48.478306000000003</v>
+      </c>
+      <c r="L10" s="2">
+        <v>45.697992999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
